--- a/biology/Médecine/Remed/Remed.xlsx
+++ b/biology/Médecine/Remed/Remed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Remed (acronyme de Réseau Médicaments et Développement) est une association française de solidarité internationale (loi de 1901) reconnue d'intérêt général qui œuvre pour un meilleur accès à des médicaments de qualité dans les pays en développement. Parce que le médicament n'est pas une marchandise banale mais un véritable produit de santé publique, ReMeD travaille avec un large réseau de professionnels, en particulier en Afrique francophone, afin d’améliorer la disponibilité, l’accessibilité, la qualité et le bon usage du médicament, à travers l’échange d’informations, la formation et la sensibilisation.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1983 : création d'un réseau de coopération pharmaceutique
 1993 : constitution du réseau en association
@@ -547,7 +561,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’action de ReMeD se structure autour des missions suivantes :
 une mission de mise en lien et de partage d’informations entre les acteurs de santé publique au Nord comme au Sud à travers le site internet de ReMeD, le forum E-Med qui rassemble près de 1500 membres, les publications et l’organisation de rencontres et débats.
@@ -583,7 +599,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Informations et données issues du site officiel de ReMeD :
 Site officiel de ReMeD
